--- a/doc/Sensor_Codebook.xlsx
+++ b/doc/Sensor_Codebook.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbits\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sohrob\Dropbox\Code\MATLAB\CS120\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t>Measure</t>
   </si>
@@ -62,9 +62,6 @@
     <t>most_probable_activity</t>
   </si>
   <si>
-    <t>Confidence</t>
-  </si>
-  <si>
     <t>most_probable_confidence</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>App Package Category</t>
   </si>
   <si>
-    <t>No. Running Apps</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -290,24 +284,12 @@
     <t>String (Encrypted)</t>
   </si>
   <si>
-    <t>Ambient Light</t>
-  </si>
-  <si>
-    <t>Ambient Sounds</t>
-  </si>
-  <si>
     <t>Screen State Change</t>
   </si>
   <si>
     <t>Boolean</t>
   </si>
   <si>
-    <t>Network Name</t>
-  </si>
-  <si>
-    <t>Network MAC Address</t>
-  </si>
-  <si>
     <t>XX:XX:XX:XX:XX:XX</t>
   </si>
   <si>
@@ -356,28 +338,52 @@
     <t>miliseconds</t>
   </si>
   <si>
-    <t>{0 (No), 1 (Yes), 2()}</t>
-  </si>
-  <si>
     <t>{Idle, Ringing, Off-Hook}</t>
   </si>
   <si>
     <t>Time elapsed since last touch</t>
   </si>
   <si>
-    <t>No. touches since last transmit</t>
-  </si>
-  <si>
     <t>Normalized Power (mean of squares)</t>
   </si>
   <si>
     <t>Normalized Amplitude (mean of absolutes)</t>
+  </si>
+  <si>
+    <t># touches since last transmit</t>
+  </si>
+  <si>
+    <t># Running Apps</t>
+  </si>
+  <si>
+    <t>{0 (Unplugged), 1 (Plugged-Charger), 2(Plugged-USB)}</t>
+  </si>
+  <si>
+    <t>watts (norm)</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>{1 (Low), 2 (Medium), 3 (High)}</t>
+  </si>
+  <si>
+    <t>Classifier's Confidence</t>
+  </si>
+  <si>
+    <t>Access Point's MAC Address</t>
+  </si>
+  <si>
+    <t>Access Point's Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -429,17 +435,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,648 +847,654 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83984375" customWidth="1"/>
+    <col min="5" max="5" width="18.15625" customWidth="1"/>
+    <col min="6" max="6" width="14.15625" customWidth="1"/>
+    <col min="7" max="7" width="255.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
